--- a/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
+++ b/natmiOut/YoungD7/LR-pairs_lrc2p/Thbs1-Lrp1.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H2">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J2">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N2">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P2">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q2">
-        <v>202.2878984244759</v>
+        <v>2889.547526679965</v>
       </c>
       <c r="R2">
-        <v>202.2878984244759</v>
+        <v>26005.92774011969</v>
       </c>
       <c r="S2">
-        <v>0.0016756785814472</v>
+        <v>0.01357812052046301</v>
       </c>
       <c r="T2">
-        <v>0.0016756785814472</v>
+        <v>0.01357812052046301</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H3">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I3">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J3">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N3">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O3">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P3">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q3">
-        <v>5169.711182262587</v>
+        <v>22163.05242499987</v>
       </c>
       <c r="R3">
-        <v>5169.711182262587</v>
+        <v>199467.4718249989</v>
       </c>
       <c r="S3">
-        <v>0.04282398684180183</v>
+        <v>0.1041452317878135</v>
       </c>
       <c r="T3">
-        <v>0.04282398684180183</v>
+        <v>0.1041452317878135</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H4">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I4">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J4">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N4">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P4">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q4">
-        <v>2890.760837467</v>
+        <v>13582.37675739719</v>
       </c>
       <c r="R4">
-        <v>2890.760837467</v>
+        <v>122241.3908165747</v>
       </c>
       <c r="S4">
-        <v>0.02394600001857413</v>
+        <v>0.06382423090931934</v>
       </c>
       <c r="T4">
-        <v>0.02394600001857413</v>
+        <v>0.06382423090931932</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>28.5755121551632</v>
+        <v>122.253015</v>
       </c>
       <c r="H5">
-        <v>28.5755121551632</v>
+        <v>366.759045</v>
       </c>
       <c r="I5">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="J5">
-        <v>0.07555758762531722</v>
+        <v>0.1988639364328829</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N5">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P5">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q5">
-        <v>858.5511614136237</v>
+        <v>3685.07743976359</v>
       </c>
       <c r="R5">
-        <v>858.5511614136237</v>
+        <v>33165.69695787231</v>
       </c>
       <c r="S5">
-        <v>0.007111922183494078</v>
+        <v>0.01731635321528702</v>
       </c>
       <c r="T5">
-        <v>0.007111922183494078</v>
+        <v>0.01731635321528702</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H6">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I6">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J6">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N6">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P6">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q6">
-        <v>929.7381213702801</v>
+        <v>3132.801168529889</v>
       </c>
       <c r="R6">
-        <v>929.7381213702801</v>
+        <v>28195.210516769</v>
       </c>
       <c r="S6">
-        <v>0.007701608788608739</v>
+        <v>0.01472118089084384</v>
       </c>
       <c r="T6">
-        <v>0.007701608788608739</v>
+        <v>0.01472118089084384</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H7">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I7">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J7">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N7">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O7">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P7">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q7">
-        <v>23760.57885844439</v>
+        <v>24028.82662221007</v>
       </c>
       <c r="R7">
-        <v>23760.57885844439</v>
+        <v>216259.4395998906</v>
       </c>
       <c r="S7">
-        <v>0.1968238999267046</v>
+        <v>0.1129125930025979</v>
       </c>
       <c r="T7">
-        <v>0.1968238999267046</v>
+        <v>0.1129125930025979</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H8">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I8">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J8">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N8">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P8">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q8">
-        <v>13286.26463219093</v>
+        <v>14725.79543478812</v>
       </c>
       <c r="R8">
-        <v>13286.26463219093</v>
+        <v>132532.1589130931</v>
       </c>
       <c r="S8">
-        <v>0.1100585316521733</v>
+        <v>0.06919720936480814</v>
       </c>
       <c r="T8">
-        <v>0.1100585316521733</v>
+        <v>0.06919720936480814</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>131.336294436091</v>
+        <v>132.5447616666667</v>
       </c>
       <c r="H9">
-        <v>131.336294436091</v>
+        <v>397.634285</v>
       </c>
       <c r="I9">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="J9">
-        <v>0.347271241241651</v>
+        <v>0.2156050961899926</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N9">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P9">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q9">
-        <v>3945.99850080005</v>
+        <v>3995.301964345625</v>
       </c>
       <c r="R9">
-        <v>3945.99850080005</v>
+        <v>35957.71767911062</v>
       </c>
       <c r="S9">
-        <v>0.03268720087416439</v>
+        <v>0.01877411293174271</v>
       </c>
       <c r="T9">
-        <v>0.03268720087416439</v>
+        <v>0.01877411293174271</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H10">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I10">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J10">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N10">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P10">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q10">
-        <v>1263.668092098349</v>
+        <v>7565.568782117884</v>
       </c>
       <c r="R10">
-        <v>1263.668092098349</v>
+        <v>68090.11903906096</v>
       </c>
       <c r="S10">
-        <v>0.01046776190014164</v>
+        <v>0.03555096560307475</v>
       </c>
       <c r="T10">
-        <v>0.01046776190014164</v>
+        <v>0.03555096560307475</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H11">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I11">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J11">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N11">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O11">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P11">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q11">
-        <v>32294.56194498103</v>
+        <v>58028.49615547862</v>
       </c>
       <c r="R11">
-        <v>32294.56194498103</v>
+        <v>522256.4653993075</v>
       </c>
       <c r="S11">
-        <v>0.2675162783829526</v>
+        <v>0.2726786485237762</v>
       </c>
       <c r="T11">
-        <v>0.2675162783829526</v>
+        <v>0.2726786485237762</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H12">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I12">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J12">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N12">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P12">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q12">
-        <v>18058.23413385444</v>
+        <v>35562.10951158682</v>
       </c>
       <c r="R12">
-        <v>18058.23413385444</v>
+        <v>320058.9856042814</v>
       </c>
       <c r="S12">
-        <v>0.149587772637601</v>
+        <v>0.1671080348918968</v>
       </c>
       <c r="T12">
-        <v>0.149587772637601</v>
+        <v>0.1671080348918968</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>178.507776328152</v>
+        <v>320.0894206666666</v>
       </c>
       <c r="H13">
-        <v>178.507776328152</v>
+        <v>960.2682619999999</v>
       </c>
       <c r="I13">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="J13">
-        <v>0.4719991326306936</v>
+        <v>0.5206762565675317</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N13">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P13">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q13">
-        <v>5363.265507043822</v>
+        <v>9648.46799733921</v>
       </c>
       <c r="R13">
-        <v>5363.265507043822</v>
+        <v>86836.2119760529</v>
       </c>
       <c r="S13">
-        <v>0.04442731970999848</v>
+        <v>0.04533860754878392</v>
       </c>
       <c r="T13">
-        <v>0.04442731970999848</v>
+        <v>0.04533860754878392</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H14">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I14">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J14">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>7.07906466649016</v>
+        <v>23.63579766666667</v>
       </c>
       <c r="N14">
-        <v>7.07906466649016</v>
+        <v>70.907393</v>
       </c>
       <c r="O14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="P14">
-        <v>0.02217750240725959</v>
+        <v>0.06827844587621175</v>
       </c>
       <c r="Q14">
-        <v>281.5737149676727</v>
+        <v>942.3567318182487</v>
       </c>
       <c r="R14">
-        <v>281.5737149676727</v>
+        <v>8481.210586364239</v>
       </c>
       <c r="S14">
-        <v>0.002332453137062</v>
+        <v>0.004428178861830152</v>
       </c>
       <c r="T14">
-        <v>0.002332453137062</v>
+        <v>0.004428178861830152</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H15">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I15">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J15">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>180.914034162936</v>
+        <v>181.2883913333334</v>
       </c>
       <c r="N15">
-        <v>180.914034162936</v>
+        <v>543.865174</v>
       </c>
       <c r="O15">
-        <v>0.5667728177633442</v>
+        <v>0.5237009467675041</v>
       </c>
       <c r="P15">
-        <v>0.5667728177633442</v>
+        <v>0.523700946767504</v>
       </c>
       <c r="Q15">
-        <v>7195.955834417176</v>
+        <v>7227.948825031591</v>
       </c>
       <c r="R15">
-        <v>7195.955834417176</v>
+        <v>65051.53942528432</v>
       </c>
       <c r="S15">
-        <v>0.05960865261188507</v>
+        <v>0.03396447345331647</v>
       </c>
       <c r="T15">
-        <v>0.05960865261188507</v>
+        <v>0.03396447345331646</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H16">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I16">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J16">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>101.162170664531</v>
+        <v>111.1005463333333</v>
       </c>
       <c r="N16">
-        <v>101.162170664531</v>
+        <v>333.301639</v>
       </c>
       <c r="O16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="P16">
-        <v>0.3169238295076338</v>
+        <v>0.3209442197221123</v>
       </c>
       <c r="Q16">
-        <v>4023.781325666085</v>
+        <v>4429.566931585057</v>
       </c>
       <c r="R16">
-        <v>4023.781325666085</v>
+        <v>39866.10238426551</v>
       </c>
       <c r="S16">
-        <v>0.03333152519928528</v>
+        <v>0.02081474455608803</v>
       </c>
       <c r="T16">
-        <v>0.03333152519928528</v>
+        <v>0.02081474455608803</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>39.7755534428927</v>
+        <v>39.86989333333333</v>
       </c>
       <c r="H17">
-        <v>39.7755534428927</v>
+        <v>119.60968</v>
       </c>
       <c r="I17">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="J17">
-        <v>0.1051720385023381</v>
+        <v>0.06485471080959287</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>30.0449964554177</v>
+        <v>30.14303933333333</v>
       </c>
       <c r="N17">
-        <v>30.0449964554177</v>
+        <v>90.42911799999999</v>
       </c>
       <c r="O17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="P17">
-        <v>0.0941258503217627</v>
+        <v>0.08707638763417187</v>
       </c>
       <c r="Q17">
-        <v>1195.056362203989</v>
+        <v>1201.799762962471</v>
       </c>
       <c r="R17">
-        <v>1195.056362203989</v>
+        <v>10816.19786666224</v>
       </c>
       <c r="S17">
-        <v>0.009899407554105736</v>
+        <v>0.005647313938358225</v>
       </c>
       <c r="T17">
-        <v>0.009899407554105736</v>
+        <v>0.005647313938358225</v>
       </c>
     </row>
   </sheetData>
